--- a/2 semester/LogicBase/WorkSpace/Lab12/calc.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab12/calc.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="51">
   <si>
     <t>D</t>
   </si>
@@ -150,9 +150,6 @@
     <t>A'B'C'D'+A'BC'D'+A'B'C'D+A'BC'D+AB'CD+ABCD</t>
   </si>
   <si>
-    <t>ACD</t>
-  </si>
-  <si>
     <t>A'B'C'D'+A'BC'D+A'B'CD'+A'BCD'+AB'CD+ABCD</t>
   </si>
   <si>
@@ -165,32 +162,20 @@
     <t>A'D</t>
   </si>
   <si>
-    <t>A'B+ABCD</t>
-  </si>
-  <si>
-    <t>A'C'+ADC</t>
-  </si>
-  <si>
-    <t>(A+C)(A'+D'+C')</t>
-  </si>
-  <si>
-    <t>A'CD'+AB'CD+A'B'C'D'+A'BC'D</t>
-  </si>
-  <si>
-    <t>A'B'+AB'CD</t>
-  </si>
-  <si>
-    <t>(A+C'+D)(A'+B+C'+D')(A+B+C+D)(A+B'+C+D')</t>
-  </si>
-  <si>
-    <t>(A+B)(A'+B+C'+D')</t>
+    <t>A+C'</t>
+  </si>
+  <si>
+    <t>A'B'D'+A'BC'D+A'CD'+AB'</t>
+  </si>
+  <si>
+    <t>(A+B+D)(A+B'+C+D')(A+C'+D)(A'+B)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,15 +193,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -244,7 +221,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -421,11 +398,333 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color theme="5"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="5"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color theme="5"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,6 +771,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -481,59 +835,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105:P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -848,43 +1283,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="P1" s="19" t="s">
+      <c r="P1" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="16">
+      <c r="A2" s="35">
         <v>2142</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20">
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="30">
         <v>8421</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30">
         <v>8421</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="O2" s="19">
-        <v>0</v>
-      </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="O2" s="34">
+        <v>0</v>
+      </c>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
@@ -929,13 +1364,13 @@
       <c r="O3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="4">
@@ -980,13 +1415,13 @@
       <c r="O4" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="4">
@@ -1031,13 +1466,13 @@
       <c r="O5" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="4">
@@ -1082,13 +1517,13 @@
       <c r="O6" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="4">
@@ -1171,14 +1606,14 @@
       <c r="M8" s="11">
         <v>1</v>
       </c>
-      <c r="O8" s="34" t="s">
+      <c r="O8" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="4">
@@ -1220,14 +1655,14 @@
       <c r="M9" s="11">
         <v>0</v>
       </c>
-      <c r="O9" s="19">
-        <v>1</v>
-      </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="O9" s="34">
+        <v>1</v>
+      </c>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4">
@@ -1272,13 +1707,13 @@
       <c r="O10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="19" t="s">
+      <c r="P10" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4">
@@ -1323,13 +1758,13 @@
       <c r="O11" t="s">
         <v>2</v>
       </c>
-      <c r="P11" s="19" t="s">
+      <c r="P11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="4">
@@ -1374,13 +1809,13 @@
       <c r="O12" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="19" t="s">
+      <c r="P12" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="19"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5">
@@ -1425,105 +1860,105 @@
       <c r="O13" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="19" t="s">
+      <c r="P13" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="28"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="33"/>
     </row>
     <row r="16" spans="1:21">
       <c r="H16" s="10"/>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="24" t="s">
+      <c r="D19" s="29"/>
+      <c r="E19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="25"/>
+      <c r="F19" s="29"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="31">
-        <v>0</v>
-      </c>
-      <c r="D20" s="31">
-        <v>0</v>
-      </c>
-      <c r="E20" s="30">
-        <v>0</v>
-      </c>
-      <c r="F20" s="31">
+      <c r="C20" s="21">
+        <v>0</v>
+      </c>
+      <c r="D20" s="21">
+        <v>0</v>
+      </c>
+      <c r="E20" s="39">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
         <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -1532,37 +1967,37 @@
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
     </row>
-    <row r="21" spans="1:16">
-      <c r="B21" s="22"/>
-      <c r="C21" s="31">
-        <v>0</v>
-      </c>
-      <c r="D21" s="31">
-        <v>0</v>
-      </c>
-      <c r="E21" s="30">
-        <v>0</v>
-      </c>
-      <c r="F21" s="31">
-        <v>0</v>
-      </c>
-      <c r="G21" s="21" t="s">
+    <row r="21" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B21" s="27"/>
+      <c r="C21" s="50">
+        <v>0</v>
+      </c>
+      <c r="D21" s="50">
+        <v>0</v>
+      </c>
+      <c r="E21" s="51">
+        <v>0</v>
+      </c>
+      <c r="F21" s="50">
+        <v>0</v>
+      </c>
+      <c r="G21" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30">
-        <v>1</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="22"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52">
+        <v>1</v>
+      </c>
+      <c r="F22" s="45"/>
+      <c r="G22" s="49"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -1571,15 +2006,15 @@
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
     </row>
-    <row r="23" spans="1:16">
-      <c r="B23" s="22"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30">
-        <v>1</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="3" t="s">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B23" s="48"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53">
+        <v>1</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H23" s="10"/>
@@ -1591,15 +2026,15 @@
       <c r="N23" s="10"/>
     </row>
     <row r="24" spans="1:16">
-      <c r="B24" s="23"/>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="3" t="s">
+      <c r="D24" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="49"/>
+      <c r="F24" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G24" s="10"/>
@@ -1620,17 +2055,17 @@
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -1639,111 +2074,111 @@
       <c r="N26" s="10"/>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="29" t="s">
+      <c r="A28" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
     </row>
     <row r="29" spans="1:16">
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24" t="s">
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B30" s="17"/>
+      <c r="C30" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="24" t="s">
+      <c r="D30" s="29"/>
+      <c r="E30" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="25"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="30">
-        <v>0</v>
-      </c>
-      <c r="D31" s="30">
-        <v>0</v>
-      </c>
-      <c r="E31" s="30">
-        <v>1</v>
-      </c>
-      <c r="F31" s="30">
-        <v>1</v>
-      </c>
-      <c r="G31" s="3" t="s">
+      <c r="C31" s="20">
+        <v>0</v>
+      </c>
+      <c r="D31" s="40">
+        <v>0</v>
+      </c>
+      <c r="E31" s="44">
+        <v>1</v>
+      </c>
+      <c r="F31" s="45">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10"/>
     </row>
-    <row r="32" spans="1:16">
-      <c r="B32" s="22"/>
-      <c r="C32" s="30">
-        <v>0</v>
-      </c>
-      <c r="D32" s="30">
-        <v>0</v>
-      </c>
-      <c r="E32" s="30">
-        <v>1</v>
-      </c>
-      <c r="F32" s="30">
-        <v>1</v>
-      </c>
-      <c r="G32" s="21" t="s">
+    <row r="32" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B32" s="27"/>
+      <c r="C32" s="20">
+        <v>0</v>
+      </c>
+      <c r="D32" s="40">
+        <v>0</v>
+      </c>
+      <c r="E32" s="46">
+        <v>1</v>
+      </c>
+      <c r="F32" s="47">
+        <v>1</v>
+      </c>
+      <c r="G32" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="30">
-        <v>0</v>
-      </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="22"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="43">
+        <v>0</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="27"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -1753,13 +2188,13 @@
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="B34" s="22"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="30">
-        <v>0</v>
-      </c>
-      <c r="F34" s="30"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="20">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20"/>
       <c r="G34" s="3" t="s">
         <v>25</v>
       </c>
@@ -1772,14 +2207,14 @@
       <c r="N34" s="10"/>
     </row>
     <row r="35" spans="1:16">
-      <c r="B35" s="23"/>
+      <c r="B35" s="17"/>
       <c r="C35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="25"/>
+      <c r="D35" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="29"/>
       <c r="F35" s="3" t="s">
         <v>26</v>
       </c>
@@ -1801,17 +2236,17 @@
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="B37" s="32" t="s">
+      <c r="B37" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -1820,72 +2255,72 @@
       <c r="N37" s="10"/>
     </row>
     <row r="39" spans="1:16">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="B41" s="23"/>
-      <c r="C41" s="24" t="s">
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+    </row>
+    <row r="41" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B41" s="17"/>
+      <c r="C41" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="25"/>
-      <c r="E41" s="24" t="s">
+      <c r="D41" s="41"/>
+      <c r="E41" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="25"/>
+      <c r="F41" s="29"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="30">
-        <v>0</v>
-      </c>
-      <c r="D42" s="30">
-        <v>1</v>
-      </c>
-      <c r="E42" s="30">
-        <v>1</v>
-      </c>
-      <c r="F42" s="30">
+      <c r="C42" s="40">
+        <v>0</v>
+      </c>
+      <c r="D42" s="44">
+        <v>1</v>
+      </c>
+      <c r="E42" s="45">
+        <v>1</v>
+      </c>
+      <c r="F42" s="54">
         <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -1894,37 +2329,37 @@
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
-    <row r="43" spans="1:16">
-      <c r="B43" s="22"/>
-      <c r="C43" s="30">
-        <v>0</v>
-      </c>
-      <c r="D43" s="30">
-        <v>1</v>
-      </c>
-      <c r="E43" s="30">
-        <v>1</v>
-      </c>
-      <c r="F43" s="30">
-        <v>0</v>
-      </c>
-      <c r="G43" s="21" t="s">
+    <row r="43" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B43" s="27"/>
+      <c r="C43" s="40">
+        <v>0</v>
+      </c>
+      <c r="D43" s="46">
+        <v>1</v>
+      </c>
+      <c r="E43" s="47">
+        <v>1</v>
+      </c>
+      <c r="F43" s="54">
+        <v>0</v>
+      </c>
+      <c r="G43" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="30">
-        <v>0</v>
-      </c>
-      <c r="F44" s="31"/>
-      <c r="G44" s="22"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43">
+        <v>0</v>
+      </c>
+      <c r="F44" s="21"/>
+      <c r="G44" s="27"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -1934,13 +2369,13 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="B45" s="22"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30">
-        <v>0</v>
-      </c>
-      <c r="F45" s="31"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20">
+        <v>0</v>
+      </c>
+      <c r="F45" s="21"/>
       <c r="G45" s="3" t="s">
         <v>25</v>
       </c>
@@ -1953,14 +2388,14 @@
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="B46" s="23"/>
+      <c r="B46" s="17"/>
       <c r="C46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="25"/>
+      <c r="D46" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="29"/>
       <c r="F46" s="3" t="s">
         <v>26</v>
       </c>
@@ -1982,17 +2417,17 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="33"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -2001,72 +2436,72 @@
       <c r="N48" s="10"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="30"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
-      <c r="P51" s="35"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="B52" s="23"/>
-      <c r="C52" s="24" t="s">
+      <c r="B52" s="17"/>
+      <c r="C52" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="25"/>
-      <c r="E52" s="24" t="s">
+      <c r="D52" s="29"/>
+      <c r="E52" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="25"/>
+      <c r="F52" s="29"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
-    <row r="53" spans="1:16">
-      <c r="B53" s="21" t="s">
+    <row r="53" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B53" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="31">
-        <v>0</v>
-      </c>
-      <c r="D53" s="31">
-        <v>0</v>
-      </c>
-      <c r="E53" s="31">
-        <v>0</v>
-      </c>
-      <c r="F53" s="31">
+      <c r="C53" s="50">
+        <v>0</v>
+      </c>
+      <c r="D53" s="50">
+        <v>0</v>
+      </c>
+      <c r="E53" s="50">
+        <v>0</v>
+      </c>
+      <c r="F53" s="50">
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -2076,36 +2511,36 @@
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="B54" s="22"/>
-      <c r="C54" s="30">
-        <v>1</v>
-      </c>
-      <c r="D54" s="30">
-        <v>1</v>
-      </c>
-      <c r="E54" s="30">
-        <v>1</v>
-      </c>
-      <c r="F54" s="30">
-        <v>1</v>
-      </c>
-      <c r="G54" s="21" t="s">
+      <c r="B54" s="48"/>
+      <c r="C54" s="44">
+        <v>1</v>
+      </c>
+      <c r="D54" s="52">
+        <v>1</v>
+      </c>
+      <c r="E54" s="52">
+        <v>1</v>
+      </c>
+      <c r="F54" s="45">
+        <v>1</v>
+      </c>
+      <c r="G54" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
     </row>
-    <row r="55" spans="1:16">
-      <c r="B55" s="21" t="s">
+    <row r="55" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B55" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30">
-        <v>1</v>
-      </c>
-      <c r="F55" s="30"/>
-      <c r="G55" s="22"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="53"/>
+      <c r="E55" s="53">
+        <v>1</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="49"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -2115,13 +2550,13 @@
       <c r="N55" s="10"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="B56" s="22"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31">
-        <v>0</v>
-      </c>
-      <c r="F56" s="31"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55">
+        <v>0</v>
+      </c>
+      <c r="F56" s="55"/>
       <c r="G56" s="3" t="s">
         <v>25</v>
       </c>
@@ -2134,14 +2569,14 @@
       <c r="N56" s="10"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="B57" s="23"/>
+      <c r="B57" s="17"/>
       <c r="C57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="25"/>
+      <c r="D57" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="29"/>
       <c r="F57" s="3" t="s">
         <v>26</v>
       </c>
@@ -2163,17 +2598,17 @@
       <c r="N58" s="10"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -2182,135 +2617,136 @@
       <c r="N59" s="10"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="26" t="s">
+      <c r="A61" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="27"/>
-      <c r="O61" s="27"/>
-      <c r="P61" s="28"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="32"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="32"/>
+      <c r="P61" s="33"/>
     </row>
     <row r="62" spans="1:16">
       <c r="H62" s="10"/>
       <c r="I62" s="10"/>
     </row>
     <row r="63" spans="1:16">
-      <c r="A63" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="20" t="s">
+      <c r="A63" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
     </row>
     <row r="64" spans="1:16">
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-    </row>
-    <row r="65" spans="1:16">
-      <c r="B65" s="23"/>
-      <c r="C65" s="24" t="s">
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+    </row>
+    <row r="65" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B65" s="17"/>
+      <c r="C65" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="25"/>
-      <c r="E65" s="24" t="s">
+      <c r="D65" s="41"/>
+      <c r="E65" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="25"/>
+      <c r="F65" s="41"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-    </row>
-    <row r="66" spans="1:16">
-      <c r="B66" s="21" t="s">
+      <c r="R65" s="68"/>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="B66" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="30">
-        <v>1</v>
-      </c>
-      <c r="D66" s="30">
-        <v>1</v>
-      </c>
-      <c r="E66" s="30">
-        <v>1</v>
-      </c>
-      <c r="F66" s="30">
-        <v>1</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="C66" s="44">
+        <v>1</v>
+      </c>
+      <c r="D66" s="52">
+        <v>1</v>
+      </c>
+      <c r="E66" s="52">
+        <v>1</v>
+      </c>
+      <c r="F66" s="45">
+        <v>1</v>
+      </c>
+      <c r="G66" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H66" s="10"/>
       <c r="I66" s="10"/>
     </row>
-    <row r="67" spans="1:16">
-      <c r="B67" s="22"/>
-      <c r="C67" s="30">
-        <v>1</v>
-      </c>
-      <c r="D67" s="30">
-        <v>1</v>
-      </c>
-      <c r="E67" s="30">
-        <v>1</v>
-      </c>
-      <c r="F67" s="30">
-        <v>1</v>
-      </c>
-      <c r="G67" s="21" t="s">
+    <row r="67" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B67" s="48"/>
+      <c r="C67" s="46">
+        <v>1</v>
+      </c>
+      <c r="D67" s="53">
+        <v>1</v>
+      </c>
+      <c r="E67" s="53">
+        <v>1</v>
+      </c>
+      <c r="F67" s="47">
+        <v>1</v>
+      </c>
+      <c r="G67" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
     </row>
-    <row r="68" spans="1:16">
-      <c r="B68" s="21" t="s">
+    <row r="68" spans="1:18">
+      <c r="B68" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31">
-        <v>0</v>
-      </c>
-      <c r="F68" s="31"/>
-      <c r="G68" s="22"/>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55">
+        <v>0</v>
+      </c>
+      <c r="F68" s="55"/>
+      <c r="G68" s="27"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
@@ -2319,14 +2755,14 @@
       <c r="M68" s="10"/>
       <c r="N68" s="10"/>
     </row>
-    <row r="69" spans="1:16">
-      <c r="B69" s="22"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31">
-        <v>0</v>
-      </c>
-      <c r="F69" s="31"/>
+    <row r="69" spans="1:18">
+      <c r="B69" s="27"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21">
+        <v>0</v>
+      </c>
+      <c r="F69" s="21"/>
       <c r="G69" s="3" t="s">
         <v>25</v>
       </c>
@@ -2338,15 +2774,15 @@
       <c r="M69" s="10"/>
       <c r="N69" s="10"/>
     </row>
-    <row r="70" spans="1:16">
-      <c r="B70" s="23"/>
+    <row r="70" spans="1:18">
+      <c r="B70" s="17"/>
       <c r="C70" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="25"/>
+      <c r="D70" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="29"/>
       <c r="F70" s="3" t="s">
         <v>26</v>
       </c>
@@ -2359,7 +2795,7 @@
       <c r="M70" s="10"/>
       <c r="N70" s="10"/>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:18">
       <c r="I71" s="10"/>
       <c r="J71" s="10"/>
       <c r="K71" s="10"/>
@@ -2367,100 +2803,100 @@
       <c r="M71" s="10"/>
       <c r="N71" s="10"/>
     </row>
-    <row r="72" spans="1:16">
-      <c r="B72" s="32" t="s">
+    <row r="72" spans="1:18">
+      <c r="B72" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="32"/>
-      <c r="D72" s="33" t="s">
+      <c r="C72" s="24"/>
+      <c r="D72" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="33"/>
-      <c r="I72" s="36" t="s">
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J72" s="32" t="s">
+      <c r="J72" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="K72" s="32"/>
-      <c r="L72" s="33" t="s">
+      <c r="K72" s="24"/>
+      <c r="L72" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
-    </row>
-    <row r="74" spans="1:16">
-      <c r="A74" s="29" t="s">
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-    </row>
-    <row r="75" spans="1:16">
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-    </row>
-    <row r="76" spans="1:16">
-      <c r="B76" s="23"/>
-      <c r="C76" s="24" t="s">
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="30"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="30"/>
+      <c r="P74" s="30"/>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+    </row>
+    <row r="76" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B76" s="17"/>
+      <c r="C76" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="25"/>
-      <c r="E76" s="24" t="s">
+      <c r="D76" s="41"/>
+      <c r="E76" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="25"/>
+      <c r="F76" s="29"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
     </row>
-    <row r="77" spans="1:16">
-      <c r="B77" s="21" t="s">
+    <row r="77" spans="1:18">
+      <c r="B77" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="31">
-        <v>1</v>
-      </c>
-      <c r="D77" s="31">
-        <v>1</v>
-      </c>
-      <c r="E77" s="31">
-        <v>0</v>
-      </c>
-      <c r="F77" s="31">
+      <c r="C77" s="60">
+        <v>1</v>
+      </c>
+      <c r="D77" s="61">
+        <v>1</v>
+      </c>
+      <c r="E77" s="54">
+        <v>0</v>
+      </c>
+      <c r="F77" s="20">
         <v>0</v>
       </c>
       <c r="G77" s="3" t="s">
@@ -2469,37 +2905,37 @@
       <c r="H77" s="10"/>
       <c r="I77" s="10"/>
     </row>
-    <row r="78" spans="1:16">
-      <c r="B78" s="22"/>
-      <c r="C78" s="31">
-        <v>1</v>
-      </c>
-      <c r="D78" s="31">
-        <v>1</v>
-      </c>
-      <c r="E78" s="31">
-        <v>0</v>
-      </c>
-      <c r="F78" s="31">
-        <v>0</v>
-      </c>
-      <c r="G78" s="21" t="s">
+    <row r="78" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B78" s="48"/>
+      <c r="C78" s="62">
+        <v>1</v>
+      </c>
+      <c r="D78" s="63">
+        <v>1</v>
+      </c>
+      <c r="E78" s="56">
+        <v>0</v>
+      </c>
+      <c r="F78" s="57">
+        <v>0</v>
+      </c>
+      <c r="G78" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
     </row>
-    <row r="79" spans="1:16">
-      <c r="B79" s="21" t="s">
+    <row r="79" spans="1:18">
+      <c r="B79" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="30">
-        <v>1</v>
-      </c>
-      <c r="F79" s="31"/>
-      <c r="G79" s="22"/>
+      <c r="C79" s="64"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="58">
+        <v>1</v>
+      </c>
+      <c r="F79" s="45"/>
+      <c r="G79" s="49"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
@@ -2508,15 +2944,15 @@
       <c r="M79" s="10"/>
       <c r="N79" s="10"/>
     </row>
-    <row r="80" spans="1:16">
-      <c r="B80" s="22"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="30">
-        <v>1</v>
-      </c>
-      <c r="F80" s="31"/>
-      <c r="G80" s="3" t="s">
+    <row r="80" spans="1:18" ht="15.75" thickBot="1">
+      <c r="B80" s="48"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="67"/>
+      <c r="E80" s="59">
+        <v>1</v>
+      </c>
+      <c r="F80" s="47"/>
+      <c r="G80" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H80" s="10"/>
@@ -2528,15 +2964,15 @@
       <c r="N80" s="10"/>
     </row>
     <row r="81" spans="1:16">
-      <c r="B81" s="23"/>
-      <c r="C81" s="3" t="s">
+      <c r="B81" s="17"/>
+      <c r="C81" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="25"/>
-      <c r="F81" s="3" t="s">
+      <c r="D81" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="49"/>
+      <c r="F81" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G81" s="10"/>
@@ -2557,138 +2993,138 @@
       <c r="N82" s="10"/>
     </row>
     <row r="83" spans="1:16">
-      <c r="B83" s="32" t="s">
+      <c r="B83" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="32"/>
-      <c r="D83" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="36" t="s">
+      <c r="C83" s="24"/>
+      <c r="D83" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J83" s="32" t="s">
+      <c r="J83" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K83" s="32"/>
-      <c r="L83" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="M83" s="33"/>
-      <c r="N83" s="33"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="33"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="M83" s="25"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="25"/>
     </row>
     <row r="85" spans="1:16">
-      <c r="A85" s="29" t="s">
+      <c r="A85" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="20"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
-      <c r="O85" s="20"/>
-      <c r="P85" s="20"/>
+      <c r="B85" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
     </row>
     <row r="86" spans="1:16">
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-    </row>
-    <row r="87" spans="1:16">
-      <c r="B87" s="23"/>
-      <c r="C87" s="24" t="s">
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="22"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="22"/>
+    </row>
+    <row r="87" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B87" s="17"/>
+      <c r="C87" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="25"/>
-      <c r="E87" s="24" t="s">
+      <c r="D87" s="29"/>
+      <c r="E87" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="25"/>
+      <c r="F87" s="41"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
     </row>
-    <row r="88" spans="1:16">
-      <c r="B88" s="21" t="s">
+    <row r="88" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B88" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="31">
-        <v>1</v>
-      </c>
-      <c r="D88" s="31">
-        <v>0</v>
-      </c>
-      <c r="E88" s="31">
-        <v>0</v>
-      </c>
-      <c r="F88" s="31">
-        <v>1</v>
-      </c>
-      <c r="G88" s="3" t="s">
+      <c r="C88" s="75">
+        <v>1</v>
+      </c>
+      <c r="D88" s="77">
+        <v>0</v>
+      </c>
+      <c r="E88" s="78">
+        <v>0</v>
+      </c>
+      <c r="F88" s="80">
+        <v>1</v>
+      </c>
+      <c r="G88" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H88" s="10"/>
       <c r="I88" s="10"/>
     </row>
-    <row r="89" spans="1:16">
-      <c r="B89" s="22"/>
-      <c r="C89" s="31">
-        <v>0</v>
-      </c>
-      <c r="D89" s="31">
-        <v>1</v>
-      </c>
-      <c r="E89" s="31">
-        <v>0</v>
-      </c>
-      <c r="F89" s="31">
-        <v>1</v>
-      </c>
-      <c r="G89" s="21" t="s">
+    <row r="89" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B89" s="27"/>
+      <c r="C89" s="76">
+        <v>0</v>
+      </c>
+      <c r="D89" s="75">
+        <v>1</v>
+      </c>
+      <c r="E89" s="79">
+        <v>0</v>
+      </c>
+      <c r="F89" s="81">
+        <v>1</v>
+      </c>
+      <c r="G89" s="41" t="s">
         <v>6</v>
       </c>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
     </row>
-    <row r="90" spans="1:16">
-      <c r="B90" s="21" t="s">
+    <row r="90" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B90" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31">
-        <v>0</v>
-      </c>
-      <c r="F90" s="31"/>
-      <c r="G90" s="22"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="50">
+        <v>0</v>
+      </c>
+      <c r="F90" s="82"/>
+      <c r="G90" s="27"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
@@ -2697,15 +3133,15 @@
       <c r="M90" s="10"/>
       <c r="N90" s="10"/>
     </row>
-    <row r="91" spans="1:16">
-      <c r="B91" s="22"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31">
-        <v>1</v>
-      </c>
-      <c r="F91" s="31"/>
-      <c r="G91" s="3" t="s">
+    <row r="91" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B91" s="48"/>
+      <c r="C91" s="69"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="70">
+        <v>1</v>
+      </c>
+      <c r="F91" s="71"/>
+      <c r="G91" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H91" s="10"/>
@@ -2717,15 +3153,15 @@
       <c r="N91" s="10"/>
     </row>
     <row r="92" spans="1:16">
-      <c r="B92" s="23"/>
-      <c r="C92" s="3" t="s">
+      <c r="B92" s="17"/>
+      <c r="C92" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E92" s="25"/>
-      <c r="F92" s="3" t="s">
+      <c r="D92" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="49"/>
+      <c r="F92" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G92" s="10"/>
@@ -2746,142 +3182,142 @@
       <c r="N93" s="10"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="B94" s="32" t="s">
+      <c r="B94" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="32"/>
-      <c r="D94" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="36" t="s">
+      <c r="C94" s="24"/>
+      <c r="D94" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
+      <c r="I94" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J94" s="32" t="s">
+      <c r="J94" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="K94" s="32"/>
+      <c r="K94" s="24"/>
     </row>
     <row r="95" spans="1:16">
-      <c r="J95" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="K95" s="38"/>
-      <c r="L95" s="38"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="38"/>
-      <c r="P95" s="38"/>
+      <c r="J95" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="K95" s="84"/>
+      <c r="L95" s="84"/>
+      <c r="M95" s="84"/>
+      <c r="N95" s="84"/>
+      <c r="O95" s="84"/>
+      <c r="P95" s="84"/>
     </row>
     <row r="96" spans="1:16">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C96" s="20"/>
-      <c r="D96" s="20"/>
-      <c r="E96" s="20"/>
-      <c r="F96" s="20"/>
-      <c r="G96" s="20"/>
-      <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
-      <c r="J96" s="20"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="20"/>
-      <c r="M96" s="20"/>
-      <c r="N96" s="20"/>
-      <c r="O96" s="20"/>
-      <c r="P96" s="20"/>
+      <c r="B96" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="30"/>
+      <c r="P96" s="30"/>
     </row>
     <row r="97" spans="2:16">
-      <c r="B97" s="35"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="35"/>
-      <c r="N97" s="35"/>
-      <c r="O97" s="35"/>
-      <c r="P97" s="35"/>
-    </row>
-    <row r="98" spans="2:16">
-      <c r="B98" s="23"/>
-      <c r="C98" s="24" t="s">
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+      <c r="J97" s="22"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="22"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="22"/>
+      <c r="P97" s="22"/>
+    </row>
+    <row r="98" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B98" s="17"/>
+      <c r="C98" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D98" s="25"/>
-      <c r="E98" s="24" t="s">
+      <c r="D98" s="41"/>
+      <c r="E98" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="F98" s="25"/>
+      <c r="F98" s="41"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
     </row>
-    <row r="99" spans="2:16">
-      <c r="B99" s="21" t="s">
+    <row r="99" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B99" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="31">
-        <v>1</v>
-      </c>
-      <c r="D99" s="31">
-        <v>1</v>
-      </c>
-      <c r="E99" s="31">
-        <v>1</v>
-      </c>
-      <c r="F99" s="31">
-        <v>1</v>
-      </c>
-      <c r="G99" s="3" t="s">
+      <c r="C99" s="72">
+        <v>1</v>
+      </c>
+      <c r="D99" s="73">
+        <v>1</v>
+      </c>
+      <c r="E99" s="73">
+        <v>1</v>
+      </c>
+      <c r="F99" s="74">
+        <v>1</v>
+      </c>
+      <c r="G99" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H99" s="10"/>
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="22"/>
-      <c r="C100" s="31">
-        <v>0</v>
-      </c>
-      <c r="D100" s="31">
-        <v>0</v>
-      </c>
-      <c r="E100" s="31">
-        <v>0</v>
-      </c>
-      <c r="F100" s="31">
-        <v>0</v>
-      </c>
-      <c r="G100" s="21" t="s">
+      <c r="B100" s="27"/>
+      <c r="C100" s="55">
+        <v>0</v>
+      </c>
+      <c r="D100" s="55">
+        <v>0</v>
+      </c>
+      <c r="E100" s="55">
+        <v>0</v>
+      </c>
+      <c r="F100" s="55">
+        <v>0</v>
+      </c>
+      <c r="G100" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
-    <row r="101" spans="2:16">
-      <c r="B101" s="21" t="s">
+    <row r="101" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B101" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31">
-        <v>0</v>
-      </c>
-      <c r="F101" s="31"/>
-      <c r="G101" s="22"/>
+      <c r="C101" s="50"/>
+      <c r="D101" s="50"/>
+      <c r="E101" s="50">
+        <v>0</v>
+      </c>
+      <c r="F101" s="50"/>
+      <c r="G101" s="27"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -2890,15 +3326,15 @@
       <c r="M101" s="10"/>
       <c r="N101" s="10"/>
     </row>
-    <row r="102" spans="2:16">
-      <c r="B102" s="22"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31">
-        <v>1</v>
-      </c>
-      <c r="F102" s="31"/>
-      <c r="G102" s="3" t="s">
+    <row r="102" spans="2:16" ht="15.75" thickBot="1">
+      <c r="B102" s="48"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="73"/>
+      <c r="E102" s="73">
+        <v>1</v>
+      </c>
+      <c r="F102" s="74"/>
+      <c r="G102" s="18" t="s">
         <v>25</v>
       </c>
       <c r="H102" s="10"/>
@@ -2910,15 +3346,15 @@
       <c r="N102" s="10"/>
     </row>
     <row r="103" spans="2:16">
-      <c r="B103" s="23"/>
-      <c r="C103" s="3" t="s">
+      <c r="B103" s="17"/>
+      <c r="C103" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" s="25"/>
-      <c r="F103" s="3" t="s">
+      <c r="D103" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="49"/>
+      <c r="F103" s="16" t="s">
         <v>26</v>
       </c>
       <c r="G103" s="10"/>
@@ -2939,106 +3375,49 @@
       <c r="N104" s="10"/>
     </row>
     <row r="105" spans="2:16">
-      <c r="B105" s="32" t="s">
+      <c r="B105" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="32"/>
-      <c r="D105" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
-      <c r="G105" s="33"/>
-      <c r="H105" s="33"/>
-      <c r="I105" s="36" t="s">
+      <c r="C105" s="24"/>
+      <c r="D105" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J105" s="32" t="s">
+      <c r="J105" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="K105" s="32"/>
-      <c r="L105" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="M105" s="33"/>
-      <c r="N105" s="33"/>
-      <c r="O105" s="33"/>
-      <c r="P105" s="33"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="M105" s="25"/>
+      <c r="N105" s="25"/>
+      <c r="O105" s="25"/>
+      <c r="P105" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:P83"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="J105:K105"/>
-    <mergeCell ref="L105:P105"/>
-    <mergeCell ref="J95:P95"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="B96:P96"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B85:P85"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="B74:P74"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:P72"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="B63:P63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="B50:P50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B39:P39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
     <mergeCell ref="A15:P15"/>
     <mergeCell ref="B17:P17"/>
     <mergeCell ref="B26:C26"/>
@@ -3049,21 +3428,78 @@
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B39:P39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="B50:P50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="B63:P63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="B74:P74"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="B96:P96"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:P83"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="J105:K105"/>
+    <mergeCell ref="L105:P105"/>
+    <mergeCell ref="J95:P95"/>
+    <mergeCell ref="B85:P85"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="B90:B91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/2 semester/LogicBase/WorkSpace/Lab12/calc.xlsx
+++ b/2 semester/LogicBase/WorkSpace/Lab12/calc.xlsx
@@ -165,10 +165,10 @@
     <t>A+C'</t>
   </si>
   <si>
-    <t>A'B'D'+A'BC'D+A'CD'+AB'</t>
-  </si>
-  <si>
-    <t>(A+B+D)(A+B'+C+D')(A+C'+D)(A'+B)</t>
+    <t>D'B' + AB' + CD' + BDC'</t>
+  </si>
+  <si>
+    <t>(D + B)(A' + B)(C' + D)(B' + D' + C)</t>
   </si>
 </sst>
 </file>
@@ -793,179 +793,179 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1270,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="L105" sqref="L105:P105"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="Q74" sqref="Q74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1283,43 +1283,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="P1" s="34" t="s">
+      <c r="P1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="35">
+      <c r="A2" s="66">
         <v>2142</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="30">
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="65">
         <v>8421</v>
       </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30">
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65">
         <v>8421</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="O2" s="34">
-        <v>0</v>
-      </c>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="O2" s="64">
+        <v>0</v>
+      </c>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
@@ -1364,13 +1364,13 @@
       <c r="O3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="34" t="s">
+      <c r="P3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="4">
@@ -1415,13 +1415,13 @@
       <c r="O4" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="34" t="s">
+      <c r="P4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="34"/>
-      <c r="T4" s="34"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="4">
@@ -1466,13 +1466,13 @@
       <c r="O5" t="s">
         <v>3</v>
       </c>
-      <c r="P5" s="34" t="s">
+      <c r="P5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="4">
@@ -1517,13 +1517,13 @@
       <c r="O6" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="34" t="s">
+      <c r="P6" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="4">
@@ -1606,14 +1606,14 @@
       <c r="M8" s="11">
         <v>1</v>
       </c>
-      <c r="O8" s="38" t="s">
+      <c r="O8" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="4">
@@ -1655,14 +1655,14 @@
       <c r="M9" s="11">
         <v>0</v>
       </c>
-      <c r="O9" s="34">
-        <v>1</v>
-      </c>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
+      <c r="O9" s="64">
+        <v>1</v>
+      </c>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="4">
@@ -1707,13 +1707,13 @@
       <c r="O10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="P10" s="34" t="s">
+      <c r="P10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="4">
@@ -1758,13 +1758,13 @@
       <c r="O11" t="s">
         <v>2</v>
       </c>
-      <c r="P11" s="34" t="s">
+      <c r="P11" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="4">
@@ -1809,13 +1809,13 @@
       <c r="O12" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="34" t="s">
+      <c r="P12" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5">
@@ -1860,33 +1860,33 @@
       <c r="O13" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="34" t="s">
+      <c r="P13" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
     </row>
     <row r="15" spans="1:21">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="33"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="72"/>
     </row>
     <row r="16" spans="1:21">
       <c r="H16" s="10"/>
@@ -1896,23 +1896,23 @@
       <c r="A17" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="65"/>
     </row>
     <row r="18" spans="1:16">
       <c r="B18" s="22"/>
@@ -1933,20 +1933,20 @@
     </row>
     <row r="19" spans="1:16">
       <c r="B19" s="17"/>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="28" t="s">
+      <c r="D19" s="76"/>
+      <c r="E19" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="F19" s="29"/>
+      <c r="F19" s="76"/>
       <c r="G19" s="10"/>
       <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:16">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="77" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="21">
@@ -1955,7 +1955,7 @@
       <c r="D20" s="21">
         <v>0</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="24">
         <v>0</v>
       </c>
       <c r="F20" s="21">
@@ -1968,36 +1968,36 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B21" s="27"/>
-      <c r="C21" s="50">
-        <v>0</v>
-      </c>
-      <c r="D21" s="50">
-        <v>0</v>
-      </c>
-      <c r="E21" s="51">
-        <v>0</v>
-      </c>
-      <c r="F21" s="50">
-        <v>0</v>
-      </c>
-      <c r="G21" s="26" t="s">
+      <c r="B21" s="80"/>
+      <c r="C21" s="31">
+        <v>0</v>
+      </c>
+      <c r="D21" s="31">
+        <v>0</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="31">
+        <v>0</v>
+      </c>
+      <c r="G21" s="77" t="s">
         <v>6</v>
       </c>
       <c r="H21" s="10"/>
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:16">
-      <c r="B22" s="42" t="s">
+      <c r="B22" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52">
-        <v>1</v>
-      </c>
-      <c r="F22" s="45"/>
-      <c r="G22" s="49"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33">
+        <v>1</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="78"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -2007,13 +2007,13 @@
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B23" s="48"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53">
-        <v>1</v>
-      </c>
-      <c r="F23" s="47"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34">
+        <v>1</v>
+      </c>
+      <c r="F23" s="30"/>
       <c r="G23" s="18" t="s">
         <v>25</v>
       </c>
@@ -2030,10 +2030,10 @@
       <c r="C24" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" s="49"/>
+      <c r="D24" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="78"/>
       <c r="F24" s="16" t="s">
         <v>26</v>
       </c>
@@ -2055,17 +2055,17 @@
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="25" t="s">
+      <c r="C26" s="73"/>
+      <c r="D26" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -2077,23 +2077,23 @@
       <c r="A28" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
     </row>
     <row r="29" spans="1:16">
       <c r="B29" s="22"/>
@@ -2114,32 +2114,32 @@
     </row>
     <row r="30" spans="1:16" ht="15.75" thickBot="1">
       <c r="B30" s="17"/>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="29"/>
-      <c r="E30" s="42" t="s">
+      <c r="D30" s="76"/>
+      <c r="E30" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="41"/>
+      <c r="F30" s="82"/>
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
       <c r="I30" s="10"/>
     </row>
     <row r="31" spans="1:16">
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="77" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="20">
         <v>0</v>
       </c>
-      <c r="D31" s="40">
-        <v>0</v>
-      </c>
-      <c r="E31" s="44">
-        <v>1</v>
-      </c>
-      <c r="F31" s="45">
+      <c r="D31" s="25">
+        <v>0</v>
+      </c>
+      <c r="E31" s="27">
+        <v>1</v>
+      </c>
+      <c r="F31" s="28">
         <v>1</v>
       </c>
       <c r="G31" s="18" t="s">
@@ -2149,36 +2149,36 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B32" s="27"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="20">
         <v>0</v>
       </c>
-      <c r="D32" s="40">
-        <v>0</v>
-      </c>
-      <c r="E32" s="46">
-        <v>1</v>
-      </c>
-      <c r="F32" s="47">
-        <v>1</v>
-      </c>
-      <c r="G32" s="41" t="s">
+      <c r="D32" s="25">
+        <v>0</v>
+      </c>
+      <c r="E32" s="29">
+        <v>1</v>
+      </c>
+      <c r="F32" s="30">
+        <v>1</v>
+      </c>
+      <c r="G32" s="82" t="s">
         <v>6</v>
       </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:16">
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="77" t="s">
         <v>5</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
-      <c r="E33" s="43">
-        <v>0</v>
-      </c>
-      <c r="F33" s="43"/>
-      <c r="G33" s="27"/>
+      <c r="E33" s="26">
+        <v>0</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="80"/>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -2188,7 +2188,7 @@
       <c r="N33" s="10"/>
     </row>
     <row r="34" spans="1:16">
-      <c r="B34" s="27"/>
+      <c r="B34" s="80"/>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
       <c r="E34" s="20">
@@ -2211,10 +2211,10 @@
       <c r="C35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E35" s="29"/>
+      <c r="D35" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="76"/>
       <c r="F35" s="3" t="s">
         <v>26</v>
       </c>
@@ -2236,17 +2236,17 @@
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="B37" s="24" t="s">
+      <c r="B37" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="24"/>
-      <c r="D37" s="25" t="s">
+      <c r="C37" s="73"/>
+      <c r="D37" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="25"/>
+      <c r="E37" s="74"/>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10"/>
@@ -2258,23 +2258,23 @@
       <c r="A39" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="30" t="s">
+      <c r="B39" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="30"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="65"/>
+      <c r="P39" s="65"/>
     </row>
     <row r="40" spans="1:16">
       <c r="B40" s="22"/>
@@ -2295,32 +2295,32 @@
     </row>
     <row r="41" spans="1:16" ht="15.75" thickBot="1">
       <c r="B41" s="17"/>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="41"/>
-      <c r="E41" s="42" t="s">
+      <c r="D41" s="82"/>
+      <c r="E41" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="29"/>
+      <c r="F41" s="76"/>
       <c r="G41" s="10"/>
       <c r="H41" s="10"/>
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="B42" s="26" t="s">
+      <c r="B42" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="40">
-        <v>0</v>
-      </c>
-      <c r="D42" s="44">
-        <v>1</v>
-      </c>
-      <c r="E42" s="45">
-        <v>1</v>
-      </c>
-      <c r="F42" s="54">
+      <c r="C42" s="25">
+        <v>0</v>
+      </c>
+      <c r="D42" s="27">
+        <v>1</v>
+      </c>
+      <c r="E42" s="28">
+        <v>1</v>
+      </c>
+      <c r="F42" s="35">
         <v>0</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -2330,36 +2330,36 @@
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B43" s="27"/>
-      <c r="C43" s="40">
-        <v>0</v>
-      </c>
-      <c r="D43" s="46">
-        <v>1</v>
-      </c>
-      <c r="E43" s="47">
-        <v>1</v>
-      </c>
-      <c r="F43" s="54">
-        <v>0</v>
-      </c>
-      <c r="G43" s="26" t="s">
+      <c r="B43" s="80"/>
+      <c r="C43" s="25">
+        <v>0</v>
+      </c>
+      <c r="D43" s="29">
+        <v>1</v>
+      </c>
+      <c r="E43" s="30">
+        <v>1</v>
+      </c>
+      <c r="F43" s="35">
+        <v>0</v>
+      </c>
+      <c r="G43" s="77" t="s">
         <v>6</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="B44" s="26" t="s">
+      <c r="B44" s="77" t="s">
         <v>5</v>
       </c>
       <c r="C44" s="21"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43">
+      <c r="D44" s="26"/>
+      <c r="E44" s="26">
         <v>0</v>
       </c>
       <c r="F44" s="21"/>
-      <c r="G44" s="27"/>
+      <c r="G44" s="80"/>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -2369,7 +2369,7 @@
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="B45" s="27"/>
+      <c r="B45" s="80"/>
       <c r="C45" s="21"/>
       <c r="D45" s="20"/>
       <c r="E45" s="20">
@@ -2392,10 +2392,10 @@
       <c r="C46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D46" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="29"/>
+      <c r="D46" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="76"/>
       <c r="F46" s="3" t="s">
         <v>26</v>
       </c>
@@ -2417,17 +2417,17 @@
       <c r="N47" s="10"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="25" t="s">
+      <c r="C48" s="73"/>
+      <c r="D48" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="74"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="74"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
@@ -2439,23 +2439,23 @@
       <c r="A50" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="30"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="30"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
+      <c r="M50" s="65"/>
+      <c r="N50" s="65"/>
+      <c r="O50" s="65"/>
+      <c r="P50" s="65"/>
     </row>
     <row r="51" spans="1:16">
       <c r="B51" s="22"/>
@@ -2476,32 +2476,32 @@
     </row>
     <row r="52" spans="1:16">
       <c r="B52" s="17"/>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="D52" s="29"/>
-      <c r="E52" s="28" t="s">
+      <c r="D52" s="76"/>
+      <c r="E52" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="F52" s="29"/>
+      <c r="F52" s="76"/>
       <c r="G52" s="10"/>
       <c r="H52" s="10"/>
       <c r="I52" s="10"/>
     </row>
     <row r="53" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="50">
-        <v>0</v>
-      </c>
-      <c r="D53" s="50">
-        <v>0</v>
-      </c>
-      <c r="E53" s="50">
-        <v>0</v>
-      </c>
-      <c r="F53" s="50">
+      <c r="C53" s="31">
+        <v>0</v>
+      </c>
+      <c r="D53" s="31">
+        <v>0</v>
+      </c>
+      <c r="E53" s="31">
+        <v>0</v>
+      </c>
+      <c r="F53" s="31">
         <v>0</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -2511,36 +2511,36 @@
       <c r="I53" s="10"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="B54" s="48"/>
-      <c r="C54" s="44">
-        <v>1</v>
-      </c>
-      <c r="D54" s="52">
-        <v>1</v>
-      </c>
-      <c r="E54" s="52">
-        <v>1</v>
-      </c>
-      <c r="F54" s="45">
-        <v>1</v>
-      </c>
-      <c r="G54" s="41" t="s">
+      <c r="B54" s="79"/>
+      <c r="C54" s="27">
+        <v>1</v>
+      </c>
+      <c r="D54" s="33">
+        <v>1</v>
+      </c>
+      <c r="E54" s="33">
+        <v>1</v>
+      </c>
+      <c r="F54" s="28">
+        <v>1</v>
+      </c>
+      <c r="G54" s="82" t="s">
         <v>6</v>
       </c>
       <c r="H54" s="10"/>
       <c r="I54" s="10"/>
     </row>
     <row r="55" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="46"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53">
-        <v>1</v>
-      </c>
-      <c r="F55" s="47"/>
-      <c r="G55" s="49"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34">
+        <v>1</v>
+      </c>
+      <c r="F55" s="30"/>
+      <c r="G55" s="78"/>
       <c r="H55" s="10"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -2550,13 +2550,13 @@
       <c r="N55" s="10"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="B56" s="27"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="55"/>
-      <c r="E56" s="55">
-        <v>0</v>
-      </c>
-      <c r="F56" s="55"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36">
+        <v>0</v>
+      </c>
+      <c r="F56" s="36"/>
       <c r="G56" s="3" t="s">
         <v>25</v>
       </c>
@@ -2573,10 +2573,10 @@
       <c r="C57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E57" s="29"/>
+      <c r="D57" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="76"/>
       <c r="F57" s="3" t="s">
         <v>26</v>
       </c>
@@ -2598,17 +2598,17 @@
       <c r="N58" s="10"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="B59" s="24" t="s">
+      <c r="B59" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="24"/>
-      <c r="D59" s="25" t="s">
+      <c r="C59" s="73"/>
+      <c r="D59" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="E59" s="25"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="74"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="74"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -2617,24 +2617,24 @@
       <c r="N59" s="10"/>
     </row>
     <row r="61" spans="1:16">
-      <c r="A61" s="31" t="s">
+      <c r="A61" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B61" s="32"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="32"/>
-      <c r="E61" s="32"/>
-      <c r="F61" s="32"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="32"/>
-      <c r="I61" s="32"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="32"/>
-      <c r="L61" s="32"/>
-      <c r="M61" s="32"/>
-      <c r="N61" s="32"/>
-      <c r="O61" s="32"/>
-      <c r="P61" s="33"/>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="72"/>
     </row>
     <row r="62" spans="1:16">
       <c r="H62" s="10"/>
@@ -2644,23 +2644,23 @@
       <c r="A63" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B63" s="30" t="s">
+      <c r="B63" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C63" s="30"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="30"/>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
+      <c r="M63" s="65"/>
+      <c r="N63" s="65"/>
+      <c r="O63" s="65"/>
+      <c r="P63" s="65"/>
     </row>
     <row r="64" spans="1:16">
       <c r="B64" s="22"/>
@@ -2681,33 +2681,33 @@
     </row>
     <row r="65" spans="1:18" ht="15.75" thickBot="1">
       <c r="B65" s="17"/>
-      <c r="C65" s="42" t="s">
+      <c r="C65" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="42" t="s">
+      <c r="D65" s="82"/>
+      <c r="E65" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F65" s="41"/>
+      <c r="F65" s="82"/>
       <c r="G65" s="10"/>
       <c r="H65" s="10"/>
       <c r="I65" s="10"/>
-      <c r="R65" s="68"/>
+      <c r="R65" s="49"/>
     </row>
     <row r="66" spans="1:18">
-      <c r="B66" s="42" t="s">
+      <c r="B66" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="44">
-        <v>1</v>
-      </c>
-      <c r="D66" s="52">
-        <v>1</v>
-      </c>
-      <c r="E66" s="52">
-        <v>1</v>
-      </c>
-      <c r="F66" s="45">
+      <c r="C66" s="27">
+        <v>1</v>
+      </c>
+      <c r="D66" s="33">
+        <v>1</v>
+      </c>
+      <c r="E66" s="33">
+        <v>1</v>
+      </c>
+      <c r="F66" s="28">
         <v>1</v>
       </c>
       <c r="G66" s="18" t="s">
@@ -2717,36 +2717,36 @@
       <c r="I66" s="10"/>
     </row>
     <row r="67" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B67" s="48"/>
-      <c r="C67" s="46">
-        <v>1</v>
-      </c>
-      <c r="D67" s="53">
-        <v>1</v>
-      </c>
-      <c r="E67" s="53">
-        <v>1</v>
-      </c>
-      <c r="F67" s="47">
-        <v>1</v>
-      </c>
-      <c r="G67" s="41" t="s">
+      <c r="B67" s="79"/>
+      <c r="C67" s="29">
+        <v>1</v>
+      </c>
+      <c r="D67" s="34">
+        <v>1</v>
+      </c>
+      <c r="E67" s="34">
+        <v>1</v>
+      </c>
+      <c r="F67" s="30">
+        <v>1</v>
+      </c>
+      <c r="G67" s="82" t="s">
         <v>6</v>
       </c>
       <c r="H67" s="10"/>
       <c r="I67" s="10"/>
     </row>
     <row r="68" spans="1:18">
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C68" s="55"/>
-      <c r="D68" s="55"/>
-      <c r="E68" s="55">
-        <v>0</v>
-      </c>
-      <c r="F68" s="55"/>
-      <c r="G68" s="27"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36">
+        <v>0</v>
+      </c>
+      <c r="F68" s="36"/>
+      <c r="G68" s="80"/>
       <c r="H68" s="10"/>
       <c r="I68" s="10"/>
       <c r="J68" s="10"/>
@@ -2756,7 +2756,7 @@
       <c r="N68" s="10"/>
     </row>
     <row r="69" spans="1:18">
-      <c r="B69" s="27"/>
+      <c r="B69" s="80"/>
       <c r="C69" s="21"/>
       <c r="D69" s="21"/>
       <c r="E69" s="21">
@@ -2779,10 +2779,10 @@
       <c r="C70" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D70" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E70" s="29"/>
+      <c r="D70" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="76"/>
       <c r="F70" s="3" t="s">
         <v>26</v>
       </c>
@@ -2804,53 +2804,53 @@
       <c r="N71" s="10"/>
     </row>
     <row r="72" spans="1:18">
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="25" t="s">
+      <c r="C72" s="73"/>
+      <c r="D72" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="25"/>
+      <c r="E72" s="74"/>
+      <c r="F72" s="74"/>
+      <c r="G72" s="74"/>
+      <c r="H72" s="74"/>
       <c r="I72" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J72" s="24" t="s">
+      <c r="J72" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="K72" s="24"/>
-      <c r="L72" s="25" t="s">
+      <c r="K72" s="73"/>
+      <c r="L72" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="M72" s="25"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="25"/>
-      <c r="P72" s="25"/>
+      <c r="M72" s="74"/>
+      <c r="N72" s="74"/>
+      <c r="O72" s="74"/>
+      <c r="P72" s="74"/>
     </row>
     <row r="74" spans="1:18">
       <c r="A74" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="30"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
+      <c r="M74" s="65"/>
+      <c r="N74" s="65"/>
+      <c r="O74" s="65"/>
+      <c r="P74" s="65"/>
     </row>
     <row r="75" spans="1:18">
       <c r="B75" s="22"/>
@@ -2871,29 +2871,29 @@
     </row>
     <row r="76" spans="1:18" ht="15.75" thickBot="1">
       <c r="B76" s="17"/>
-      <c r="C76" s="42" t="s">
+      <c r="C76" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="28" t="s">
+      <c r="D76" s="82"/>
+      <c r="E76" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="F76" s="29"/>
+      <c r="F76" s="76"/>
       <c r="G76" s="10"/>
       <c r="H76" s="10"/>
       <c r="I76" s="10"/>
     </row>
     <row r="77" spans="1:18">
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C77" s="60">
-        <v>1</v>
-      </c>
-      <c r="D77" s="61">
-        <v>1</v>
-      </c>
-      <c r="E77" s="54">
+      <c r="C77" s="41">
+        <v>1</v>
+      </c>
+      <c r="D77" s="42">
+        <v>1</v>
+      </c>
+      <c r="E77" s="35">
         <v>0</v>
       </c>
       <c r="F77" s="20">
@@ -2906,36 +2906,36 @@
       <c r="I77" s="10"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B78" s="48"/>
-      <c r="C78" s="62">
-        <v>1</v>
-      </c>
-      <c r="D78" s="63">
-        <v>1</v>
-      </c>
-      <c r="E78" s="56">
-        <v>0</v>
-      </c>
-      <c r="F78" s="57">
-        <v>0</v>
-      </c>
-      <c r="G78" s="26" t="s">
+      <c r="B78" s="79"/>
+      <c r="C78" s="43">
+        <v>1</v>
+      </c>
+      <c r="D78" s="44">
+        <v>1</v>
+      </c>
+      <c r="E78" s="37">
+        <v>0</v>
+      </c>
+      <c r="F78" s="38">
+        <v>0</v>
+      </c>
+      <c r="G78" s="77" t="s">
         <v>6</v>
       </c>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
     </row>
     <row r="79" spans="1:18">
-      <c r="B79" s="42" t="s">
+      <c r="B79" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="C79" s="64"/>
-      <c r="D79" s="65"/>
-      <c r="E79" s="58">
-        <v>1</v>
-      </c>
-      <c r="F79" s="45"/>
-      <c r="G79" s="49"/>
+      <c r="C79" s="45"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="39">
+        <v>1</v>
+      </c>
+      <c r="F79" s="28"/>
+      <c r="G79" s="78"/>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
       <c r="J79" s="10"/>
@@ -2945,13 +2945,13 @@
       <c r="N79" s="10"/>
     </row>
     <row r="80" spans="1:18" ht="15.75" thickBot="1">
-      <c r="B80" s="48"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="67"/>
-      <c r="E80" s="59">
-        <v>1</v>
-      </c>
-      <c r="F80" s="47"/>
+      <c r="B80" s="79"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="40">
+        <v>1</v>
+      </c>
+      <c r="F80" s="30"/>
       <c r="G80" s="18" t="s">
         <v>25</v>
       </c>
@@ -2968,10 +2968,10 @@
       <c r="C81" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D81" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E81" s="49"/>
+      <c r="D81" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="78"/>
       <c r="F81" s="16" t="s">
         <v>26</v>
       </c>
@@ -2993,53 +2993,53 @@
       <c r="N82" s="10"/>
     </row>
     <row r="83" spans="1:16">
-      <c r="B83" s="24" t="s">
+      <c r="B83" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="C83" s="24"/>
-      <c r="D83" s="25" t="s">
+      <c r="C83" s="73"/>
+      <c r="D83" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="E83" s="25"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="25"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="74"/>
+      <c r="H83" s="74"/>
       <c r="I83" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J83" s="24" t="s">
+      <c r="J83" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="K83" s="24"/>
-      <c r="L83" s="25" t="s">
+      <c r="K83" s="73"/>
+      <c r="L83" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="M83" s="25"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="25"/>
-      <c r="P83" s="25"/>
+      <c r="M83" s="74"/>
+      <c r="N83" s="74"/>
+      <c r="O83" s="74"/>
+      <c r="P83" s="74"/>
     </row>
     <row r="85" spans="1:16">
       <c r="A85" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B85" s="30" t="s">
+      <c r="B85" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C85" s="30"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="65"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="65"/>
     </row>
     <row r="86" spans="1:16">
       <c r="B86" s="22"/>
@@ -3060,32 +3060,32 @@
     </row>
     <row r="87" spans="1:16" ht="15.75" thickBot="1">
       <c r="B87" s="17"/>
-      <c r="C87" s="42" t="s">
+      <c r="C87" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D87" s="29"/>
-      <c r="E87" s="28" t="s">
+      <c r="D87" s="76"/>
+      <c r="E87" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="F87" s="41"/>
+      <c r="F87" s="82"/>
       <c r="G87" s="10"/>
       <c r="H87" s="10"/>
       <c r="I87" s="10"/>
     </row>
     <row r="88" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B88" s="42" t="s">
+      <c r="B88" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="75">
-        <v>1</v>
-      </c>
-      <c r="D88" s="77">
-        <v>0</v>
-      </c>
-      <c r="E88" s="78">
-        <v>0</v>
-      </c>
-      <c r="F88" s="80">
+      <c r="C88" s="56">
+        <v>1</v>
+      </c>
+      <c r="D88" s="58">
+        <v>0</v>
+      </c>
+      <c r="E88" s="59">
+        <v>0</v>
+      </c>
+      <c r="F88" s="61">
         <v>1</v>
       </c>
       <c r="G88" s="18" t="s">
@@ -3095,36 +3095,36 @@
       <c r="I88" s="10"/>
     </row>
     <row r="89" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B89" s="27"/>
-      <c r="C89" s="76">
-        <v>0</v>
-      </c>
-      <c r="D89" s="75">
-        <v>1</v>
-      </c>
-      <c r="E89" s="79">
-        <v>0</v>
-      </c>
-      <c r="F89" s="81">
-        <v>1</v>
-      </c>
-      <c r="G89" s="41" t="s">
+      <c r="B89" s="80"/>
+      <c r="C89" s="57">
+        <v>0</v>
+      </c>
+      <c r="D89" s="56">
+        <v>1</v>
+      </c>
+      <c r="E89" s="60">
+        <v>0</v>
+      </c>
+      <c r="F89" s="62">
+        <v>1</v>
+      </c>
+      <c r="G89" s="82" t="s">
         <v>6</v>
       </c>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
     </row>
     <row r="90" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C90" s="50"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="50">
-        <v>0</v>
-      </c>
-      <c r="F90" s="82"/>
-      <c r="G90" s="27"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="31">
+        <v>0</v>
+      </c>
+      <c r="F90" s="63"/>
+      <c r="G90" s="80"/>
       <c r="H90" s="10"/>
       <c r="I90" s="10"/>
       <c r="J90" s="10"/>
@@ -3134,13 +3134,13 @@
       <c r="N90" s="10"/>
     </row>
     <row r="91" spans="1:16" ht="15.75" thickBot="1">
-      <c r="B91" s="48"/>
-      <c r="C91" s="69"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="70">
-        <v>1</v>
-      </c>
-      <c r="F91" s="71"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51">
+        <v>1</v>
+      </c>
+      <c r="F91" s="52"/>
       <c r="G91" s="18" t="s">
         <v>25</v>
       </c>
@@ -3157,10 +3157,10 @@
       <c r="C92" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D92" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E92" s="49"/>
+      <c r="D92" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E92" s="78"/>
       <c r="F92" s="16" t="s">
         <v>26</v>
       </c>
@@ -3182,11 +3182,11 @@
       <c r="N93" s="10"/>
     </row>
     <row r="94" spans="1:16">
-      <c r="B94" s="24" t="s">
+      <c r="B94" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C94" s="24"/>
-      <c r="D94" s="83" t="s">
+      <c r="C94" s="73"/>
+      <c r="D94" s="74" t="s">
         <v>49</v>
       </c>
       <c r="E94" s="83"/>
@@ -3196,10 +3196,10 @@
       <c r="I94" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J94" s="24" t="s">
+      <c r="J94" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="K94" s="24"/>
+      <c r="K94" s="73"/>
     </row>
     <row r="95" spans="1:16">
       <c r="J95" s="84" t="s">
@@ -3216,23 +3216,23 @@
       <c r="A96" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B96" s="30" t="s">
+      <c r="B96" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C96" s="30"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="30"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="30"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="30"/>
-      <c r="K96" s="30"/>
-      <c r="L96" s="30"/>
-      <c r="M96" s="30"/>
-      <c r="N96" s="30"/>
-      <c r="O96" s="30"/>
-      <c r="P96" s="30"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="65"/>
     </row>
     <row r="97" spans="2:16">
       <c r="B97" s="22"/>
@@ -3253,32 +3253,32 @@
     </row>
     <row r="98" spans="2:16" ht="15.75" thickBot="1">
       <c r="B98" s="17"/>
-      <c r="C98" s="42" t="s">
+      <c r="C98" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="D98" s="41"/>
-      <c r="E98" s="42" t="s">
+      <c r="D98" s="82"/>
+      <c r="E98" s="81" t="s">
         <v>7</v>
       </c>
-      <c r="F98" s="41"/>
+      <c r="F98" s="82"/>
       <c r="G98" s="10"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B99" s="42" t="s">
+      <c r="B99" s="81" t="s">
         <v>23</v>
       </c>
-      <c r="C99" s="72">
-        <v>1</v>
-      </c>
-      <c r="D99" s="73">
-        <v>1</v>
-      </c>
-      <c r="E99" s="73">
-        <v>1</v>
-      </c>
-      <c r="F99" s="74">
+      <c r="C99" s="53">
+        <v>1</v>
+      </c>
+      <c r="D99" s="54">
+        <v>1</v>
+      </c>
+      <c r="E99" s="54">
+        <v>1</v>
+      </c>
+      <c r="F99" s="55">
         <v>1</v>
       </c>
       <c r="G99" s="18" t="s">
@@ -3288,36 +3288,36 @@
       <c r="I99" s="10"/>
     </row>
     <row r="100" spans="2:16">
-      <c r="B100" s="27"/>
-      <c r="C100" s="55">
-        <v>0</v>
-      </c>
-      <c r="D100" s="55">
-        <v>0</v>
-      </c>
-      <c r="E100" s="55">
-        <v>0</v>
-      </c>
-      <c r="F100" s="55">
-        <v>0</v>
-      </c>
-      <c r="G100" s="26" t="s">
+      <c r="B100" s="80"/>
+      <c r="C100" s="36">
+        <v>0</v>
+      </c>
+      <c r="D100" s="36">
+        <v>0</v>
+      </c>
+      <c r="E100" s="36">
+        <v>0</v>
+      </c>
+      <c r="F100" s="36">
+        <v>0</v>
+      </c>
+      <c r="G100" s="77" t="s">
         <v>6</v>
       </c>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
     </row>
     <row r="101" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B101" s="26" t="s">
+      <c r="B101" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="50"/>
-      <c r="D101" s="50"/>
-      <c r="E101" s="50">
-        <v>0</v>
-      </c>
-      <c r="F101" s="50"/>
-      <c r="G101" s="27"/>
+      <c r="C101" s="31"/>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31">
+        <v>0</v>
+      </c>
+      <c r="F101" s="31"/>
+      <c r="G101" s="80"/>
       <c r="H101" s="10"/>
       <c r="I101" s="10"/>
       <c r="J101" s="10"/>
@@ -3327,13 +3327,13 @@
       <c r="N101" s="10"/>
     </row>
     <row r="102" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B102" s="48"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="73"/>
-      <c r="E102" s="73">
-        <v>1</v>
-      </c>
-      <c r="F102" s="74"/>
+      <c r="B102" s="79"/>
+      <c r="C102" s="53"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="54">
+        <v>1</v>
+      </c>
+      <c r="F102" s="55"/>
       <c r="G102" s="18" t="s">
         <v>25</v>
       </c>
@@ -3350,10 +3350,10 @@
       <c r="C103" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="D103" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="E103" s="49"/>
+      <c r="D103" s="79" t="s">
+        <v>0</v>
+      </c>
+      <c r="E103" s="78"/>
       <c r="F103" s="16" t="s">
         <v>26</v>
       </c>
@@ -3375,119 +3375,34 @@
       <c r="N104" s="10"/>
     </row>
     <row r="105" spans="2:16">
-      <c r="B105" s="24" t="s">
+      <c r="B105" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="24"/>
-      <c r="D105" s="25" t="s">
+      <c r="C105" s="73"/>
+      <c r="D105" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="E105" s="25"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="25"/>
-      <c r="H105" s="25"/>
+      <c r="E105" s="74"/>
+      <c r="F105" s="74"/>
+      <c r="G105" s="74"/>
+      <c r="H105" s="74"/>
       <c r="I105" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="J105" s="24" t="s">
+      <c r="J105" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="K105" s="24"/>
-      <c r="L105" s="25" t="s">
+      <c r="K105" s="73"/>
+      <c r="L105" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M105" s="25"/>
-      <c r="N105" s="25"/>
-      <c r="O105" s="25"/>
-      <c r="P105" s="25"/>
+      <c r="M105" s="74"/>
+      <c r="N105" s="74"/>
+      <c r="O105" s="74"/>
+      <c r="P105" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="O2:T2"/>
-    <mergeCell ref="O9:T9"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="O8:T8"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P12:T12"/>
-    <mergeCell ref="P1:U1"/>
-    <mergeCell ref="P3:T3"/>
-    <mergeCell ref="P4:T4"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="A15:P15"/>
-    <mergeCell ref="B17:P17"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B28:P28"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:H37"/>
-    <mergeCell ref="B39:P39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="D48:H48"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:H59"/>
-    <mergeCell ref="B50:P50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="A61:P61"/>
-    <mergeCell ref="B63:P63"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:F65"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="B74:P74"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:P72"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="D83:H83"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="D94:H94"/>
-    <mergeCell ref="B96:P96"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="B99:B100"/>
-    <mergeCell ref="G100:G101"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:H105"/>
     <mergeCell ref="J83:K83"/>
     <mergeCell ref="L83:P83"/>
     <mergeCell ref="J94:K94"/>
@@ -3500,6 +3415,91 @@
     <mergeCell ref="B88:B89"/>
     <mergeCell ref="G89:G90"/>
     <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B99:B100"/>
+    <mergeCell ref="G100:G101"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="D94:H94"/>
+    <mergeCell ref="B96:P96"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="D83:H83"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="B74:P74"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="A61:P61"/>
+    <mergeCell ref="B63:P63"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:F65"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:H59"/>
+    <mergeCell ref="B50:P50"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:H48"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="B39:P39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="B28:P28"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A15:P15"/>
+    <mergeCell ref="B17:P17"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="P1:U1"/>
+    <mergeCell ref="P3:T3"/>
+    <mergeCell ref="P4:T4"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P12:T12"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="O2:T2"/>
+    <mergeCell ref="O9:T9"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
